--- a/d2.xlsx
+++ b/d2.xlsx
@@ -23,6 +23,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
+    <t xml:space="preserve">净利润</t>
+  </si>
+  <si>
     <t xml:space="preserve">年份</t>
   </si>
   <si>
@@ -192,9 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">少数股东权益</t>
-  </si>
-  <si>
-    <t xml:space="preserve">净利润</t>
   </si>
 </sst>
 </file>
@@ -233,6 +233,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,48 +308,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF1048576"/>
+  <dimension ref="A1:BF18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="16" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="33" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="11.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="55" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="17" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="34" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="38" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="56" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="10.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,2731 +530,2729 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
+        <v>1911935</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="C2" s="2" t="n">
         <v>2262543</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>11480406</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>1578473</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="F2" s="2" t="n">
         <v>9972495</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>1658941</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>355887</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>757847</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>8978036</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="K2" s="2" t="n">
         <v>7894010</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="L2" s="2" t="n">
         <v>251148</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>612008</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="N2" s="2" t="n">
         <v>753568</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="O2" s="2" t="n">
         <v>168433</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="P2" s="2" t="n">
         <v>4103076</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="Q2" s="2" t="n">
         <v>817086</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="R2" s="2" t="n">
         <v>589084</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="S2" s="2" t="n">
         <v>476020</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="T2" s="2" t="n">
         <v>400265</v>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="U2" s="2" t="n">
         <v>19138</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="V2" s="2" t="n">
         <v>50865921</v>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="W2" s="2" t="n">
         <v>3882479</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="X2" s="2" t="n">
         <v>1658941</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="Y2" s="2" t="n">
         <v>12560</v>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Z2" s="2" t="n">
         <v>6318059</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>9495946</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>2965582</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>1392862</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>1443017</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>-765040</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>22750</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>1553011</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>64281</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>170382</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>1782006</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>1292547</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>753568</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>3514652</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>80000</v>
       </c>
-      <c r="AN2" s="2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>5019</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>39752</v>
       </c>
-      <c r="AP2" s="2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>35682374</v>
       </c>
-      <c r="AQ2" s="2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>14249544</v>
       </c>
-      <c r="AR2" s="2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>44293427</v>
       </c>
-      <c r="AS2" s="2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>29492530</v>
       </c>
-      <c r="AT2" s="2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>415854</v>
       </c>
-      <c r="AU2" s="2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>5312516</v>
       </c>
-      <c r="AV2" s="2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>2099715</v>
       </c>
-      <c r="AW2" s="2" t="n">
+      <c r="AX2" s="2" t="n">
         <v>3994145</v>
       </c>
-      <c r="AX2" s="2" t="n">
+      <c r="AY2" s="2" t="n">
         <v>1308254</v>
       </c>
-      <c r="AY2" s="2" t="n">
+      <c r="AZ2" s="2" t="n">
         <v>419358</v>
       </c>
-      <c r="AZ2" s="2" t="n">
+      <c r="BA2" s="2" t="n">
         <v>-128328</v>
       </c>
-      <c r="BA2" s="2" t="n">
+      <c r="BB2" s="2" t="n">
         <v>122666</v>
       </c>
-      <c r="BB2" s="2" t="n">
+      <c r="BC2" s="2" t="n">
         <v>1245393</v>
       </c>
-      <c r="BC2" s="2" t="n">
+      <c r="BD2" s="2" t="n">
         <v>1098296</v>
       </c>
-      <c r="BD2" s="2" t="n">
+      <c r="BE2" s="2" t="n">
         <v>81146</v>
       </c>
-      <c r="BE2" s="2" t="n">
+      <c r="BF2" s="2" t="n">
         <v>934003</v>
-      </c>
-      <c r="BF2" s="2" t="n">
-        <v>1911935</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
+        <v>2695661</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="C3" s="2" t="n">
         <v>3324742</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>14496808</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="E3" s="2" t="n">
         <v>779112</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>15319215</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>2870221</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2" t="n">
         <v>355422</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>1059829</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>9324800</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="K3" s="2" t="n">
         <v>11388496</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="L3" s="2" t="n">
         <v>253760</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="M3" s="2" t="n">
         <v>383749</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>2968629</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="O3" s="2" t="n">
         <v>440282</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="P3" s="2" t="n">
         <v>4714533</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="Q3" s="2" t="n">
         <v>1332735</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="R3" s="2" t="n">
         <v>613773</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="S3" s="2" t="n">
         <v>778375</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="T3" s="2" t="n">
         <v>643918</v>
       </c>
-      <c r="T3" s="2" t="n">
+      <c r="U3" s="2" t="n">
         <v>10306</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="V3" s="2" t="n">
         <v>68342322</v>
       </c>
-      <c r="V3" s="2" t="n">
+      <c r="W3" s="2" t="n">
         <v>4906503</v>
       </c>
-      <c r="W3" s="2" t="n">
+      <c r="X3" s="2" t="n">
         <v>2870221</v>
       </c>
-      <c r="Y3" s="2" t="n">
+      <c r="Z3" s="2" t="n">
         <v>8484861</v>
       </c>
-      <c r="Z3" s="2" t="n">
+      <c r="AA3" s="2" t="n">
         <v>13046804</v>
       </c>
-      <c r="AA3" s="2" t="n">
+      <c r="AB3" s="2" t="n">
         <v>2519706</v>
       </c>
-      <c r="AB3" s="2" t="n">
+      <c r="AC3" s="2" t="n">
         <v>2337628</v>
       </c>
-      <c r="AC3" s="2" t="n">
+      <c r="AD3" s="2" t="n">
         <v>2398720</v>
       </c>
-      <c r="AD3" s="2" t="n">
+      <c r="AE3" s="2" t="n">
         <v>77715</v>
       </c>
-      <c r="AE3" s="2" t="n">
+      <c r="AF3" s="2" t="n">
         <v>16966</v>
       </c>
-      <c r="AF3" s="2" t="n">
+      <c r="AG3" s="2" t="n">
         <v>2213477</v>
       </c>
-      <c r="AG3" s="2" t="n">
+      <c r="AH3" s="2" t="n">
         <v>92830</v>
       </c>
-      <c r="AH3" s="2" t="n">
+      <c r="AI3" s="2" t="n">
         <v>189664</v>
       </c>
-      <c r="AI3" s="2" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>1939965</v>
       </c>
-      <c r="AJ3" s="2" t="n">
+      <c r="AK3" s="2" t="n">
         <v>2396393</v>
       </c>
-      <c r="AK3" s="2" t="n">
+      <c r="AL3" s="2" t="n">
         <v>2968629</v>
       </c>
-      <c r="AL3" s="2" t="n">
+      <c r="AM3" s="2" t="n">
         <v>3632681</v>
       </c>
-      <c r="AN3" s="2" t="n">
+      <c r="AO3" s="2" t="n">
         <v>3924</v>
       </c>
-      <c r="AO3" s="2" t="n">
+      <c r="AP3" s="2" t="n">
         <v>296769</v>
       </c>
-      <c r="AP3" s="2" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>50393456</v>
       </c>
-      <c r="AQ3" s="2" t="n">
+      <c r="AR3" s="2" t="n">
         <v>16825267</v>
       </c>
-      <c r="AR3" s="2" t="n">
+      <c r="AS3" s="2" t="n">
         <v>60272563</v>
       </c>
-      <c r="AS3" s="2" t="n">
+      <c r="AT3" s="2" t="n">
         <v>40623339</v>
       </c>
-      <c r="AT3" s="2" t="n">
+      <c r="AU3" s="2" t="n">
         <v>692933</v>
       </c>
-      <c r="AU3" s="2" t="n">
+      <c r="AV3" s="2" t="n">
         <v>7044382</v>
       </c>
-      <c r="AV3" s="2" t="n">
+      <c r="AW3" s="2" t="n">
         <v>2567928</v>
       </c>
-      <c r="AW3" s="2" t="n">
+      <c r="AX3" s="2" t="n">
         <v>5781583</v>
       </c>
-      <c r="AX3" s="2" t="n">
+      <c r="AY3" s="2" t="n">
         <v>784726</v>
       </c>
-      <c r="AY3" s="2" t="n">
+      <c r="AZ3" s="2" t="n">
         <v>737940</v>
       </c>
-      <c r="AZ3" s="2" t="n">
+      <c r="BA3" s="2" t="n">
         <v>12560</v>
       </c>
-      <c r="BA3" s="2" t="n">
+      <c r="BB3" s="2" t="n">
         <v>11871</v>
       </c>
-      <c r="BB3" s="2" t="n">
+      <c r="BC3" s="2" t="n">
         <v>2064163</v>
       </c>
-      <c r="BC3" s="2" t="n">
+      <c r="BD3" s="2" t="n">
         <v>1391420</v>
       </c>
-      <c r="BD3" s="2" t="n">
+      <c r="BE3" s="2" t="n">
         <v>130841</v>
       </c>
-      <c r="BE3" s="2" t="n">
+      <c r="BF3" s="2" t="n">
         <v>1123599</v>
-      </c>
-      <c r="BF3" s="2" t="n">
-        <v>2695661</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
+        <v>3476482</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="C4" s="2" t="n">
         <v>4360201</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>15383207</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="E4" s="2" t="n">
         <v>1289877</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>17563925</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>3016569</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>449664</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>1389783</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>12103670</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="K4" s="2" t="n">
         <v>14208039</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="2" t="n">
         <v>342706</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>567444</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>4972718</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="O4" s="2" t="n">
         <v>917989</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="P4" s="2" t="n">
         <v>6523505</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="Q4" s="2" t="n">
         <v>1146739</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <v>891290</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="S4" s="2" t="n">
         <v>1466504</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="T4" s="2" t="n">
         <v>655245</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="U4" s="2" t="n">
         <v>50032</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="V4" s="2" t="n">
         <v>84152357</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="W4" s="2" t="n">
         <v>6578413</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="X4" s="2" t="n">
         <v>3016569</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="Y4" s="2" t="n">
         <v>40139</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Z4" s="2" t="n">
         <v>10056477</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="AA4" s="2" t="n">
         <v>15441206</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AB4" s="2" t="n">
         <v>2772669</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AC4" s="2" t="n">
         <v>2744694</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AD4" s="2" t="n">
         <v>3097927</v>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AE4" s="2" t="n">
         <v>-321345</v>
       </c>
-      <c r="AE4" s="2" t="n">
+      <c r="AF4" s="2" t="n">
         <v>136302</v>
       </c>
-      <c r="AF4" s="2" t="n">
+      <c r="AG4" s="2" t="n">
         <v>2976325</v>
       </c>
-      <c r="AG4" s="2" t="n">
+      <c r="AH4" s="2" t="n">
         <v>91256</v>
       </c>
-      <c r="AH4" s="2" t="n">
+      <c r="AI4" s="2" t="n">
         <v>260693</v>
       </c>
-      <c r="AI4" s="2" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>1322817</v>
       </c>
-      <c r="AJ4" s="2" t="n">
+      <c r="AK4" s="2" t="n">
         <v>1719310</v>
       </c>
-      <c r="AK4" s="2" t="n">
+      <c r="AL4" s="2" t="n">
         <v>4972718</v>
       </c>
-      <c r="AL4" s="2" t="n">
+      <c r="AM4" s="2" t="n">
         <v>3755790</v>
       </c>
-      <c r="AN4" s="2" t="n">
+      <c r="AO4" s="2" t="n">
         <v>89167</v>
       </c>
-      <c r="AO4" s="2" t="n">
+      <c r="AP4" s="2" t="n">
         <v>439232</v>
       </c>
-      <c r="AP4" s="2" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>59190359</v>
       </c>
-      <c r="AQ4" s="2" t="n">
+      <c r="AR4" s="2" t="n">
         <v>23093872</v>
       </c>
-      <c r="AR4" s="2" t="n">
+      <c r="AS4" s="2" t="n">
         <v>70263874</v>
       </c>
-      <c r="AS4" s="2" t="n">
+      <c r="AT4" s="2" t="n">
         <v>47335026</v>
       </c>
-      <c r="AT4" s="2" t="n">
+      <c r="AU4" s="2" t="n">
         <v>1149077</v>
       </c>
-      <c r="AU4" s="2" t="n">
+      <c r="AV4" s="2" t="n">
         <v>8754968</v>
       </c>
-      <c r="AV4" s="2" t="n">
+      <c r="AW4" s="2" t="n">
         <v>2410294</v>
       </c>
-      <c r="AW4" s="2" t="n">
+      <c r="AX4" s="2" t="n">
         <v>7091971</v>
       </c>
-      <c r="AX4" s="2" t="n">
+      <c r="AY4" s="2" t="n">
         <v>1198477</v>
       </c>
-      <c r="AY4" s="2" t="n">
+      <c r="AZ4" s="2" t="n">
         <v>315263</v>
       </c>
-      <c r="AZ4" s="2" t="n">
+      <c r="BA4" s="2" t="n">
         <v>83597</v>
       </c>
-      <c r="BA4" s="2" t="n">
+      <c r="BB4" s="2" t="n">
         <v>497163</v>
       </c>
-      <c r="BB4" s="2" t="n">
+      <c r="BC4" s="2" t="n">
         <v>2589558</v>
       </c>
-      <c r="BC4" s="2" t="n">
+      <c r="BD4" s="2" t="n">
         <v>2002149</v>
       </c>
-      <c r="BD4" s="2" t="n">
+      <c r="BE4" s="2" t="n">
         <v>231506</v>
       </c>
-      <c r="BE4" s="2" t="n">
+      <c r="BF4" s="2" t="n">
         <v>1868126</v>
-      </c>
-      <c r="BF4" s="2" t="n">
-        <v>3476482</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
+        <v>2243093</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="C5" s="2" t="n">
         <v>2635136</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>21471967</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="E5" s="2" t="n">
         <v>3223529</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>23873425</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>3623096</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>494200</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="I5" s="2" t="n">
         <v>2118700</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>14988379</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="K5" s="2" t="n">
         <v>14588455</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="L5" s="2" t="n">
         <v>819972</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>864274</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>4156083</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="O5" s="2" t="n">
         <v>514091</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="P5" s="2" t="n">
         <v>7003824</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="Q5" s="2" t="n">
         <v>1580462</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>1194946</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="S5" s="2" t="n">
         <v>1925610</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="T5" s="2" t="n">
         <v>1128836</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="U5" s="2" t="n">
         <v>61741</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="V5" s="2" t="n">
         <v>105368114</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="W5" s="2" t="n">
         <v>11183349</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="X5" s="2" t="n">
         <v>3789731</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="Y5" s="2" t="n">
         <v>5305</v>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="Z5" s="2" t="n">
         <v>11149367</v>
       </c>
-      <c r="Z5" s="2" t="n">
+      <c r="AA5" s="2" t="n">
         <v>21542885</v>
       </c>
-      <c r="AA5" s="2" t="n">
+      <c r="AB5" s="2" t="n">
         <v>3068804</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AC5" s="2" t="n">
         <v>2458428</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AD5" s="2" t="n">
         <v>2409032</v>
       </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AE5" s="2" t="n">
         <v>-990041</v>
       </c>
-      <c r="AE5" s="2" t="n">
+      <c r="AF5" s="2" t="n">
         <v>170046</v>
       </c>
-      <c r="AF5" s="2" t="n">
+      <c r="AG5" s="2" t="n">
         <v>7526477</v>
       </c>
-      <c r="AG5" s="2" t="n">
+      <c r="AH5" s="2" t="n">
         <v>74986</v>
       </c>
-      <c r="AH5" s="2" t="n">
+      <c r="AI5" s="2" t="n">
         <v>393343</v>
       </c>
-      <c r="AI5" s="2" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>693099</v>
       </c>
-      <c r="AJ5" s="2" t="n">
+      <c r="AK5" s="2" t="n">
         <v>6940702</v>
       </c>
-      <c r="AK5" s="2" t="n">
+      <c r="AL5" s="2" t="n">
         <v>4156083</v>
       </c>
-      <c r="AL5" s="2" t="n">
+      <c r="AM5" s="2" t="n">
         <v>3884198</v>
       </c>
-      <c r="AO5" s="2" t="n">
+      <c r="AP5" s="2" t="n">
         <v>623545</v>
       </c>
-      <c r="AP5" s="2" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>79079339</v>
       </c>
-      <c r="AQ5" s="2" t="n">
+      <c r="AR5" s="2" t="n">
         <v>24231717</v>
       </c>
-      <c r="AR5" s="2" t="n">
+      <c r="AS5" s="2" t="n">
         <v>86254456</v>
       </c>
-      <c r="AS5" s="2" t="n">
+      <c r="AT5" s="2" t="n">
         <v>60157354</v>
       </c>
-      <c r="AT5" s="2" t="n">
+      <c r="AU5" s="2" t="n">
         <v>1462901</v>
       </c>
-      <c r="AU5" s="2" t="n">
+      <c r="AV5" s="2" t="n">
         <v>10953233</v>
       </c>
-      <c r="AV5" s="2" t="n">
+      <c r="AW5" s="2" t="n">
         <v>2431703</v>
       </c>
-      <c r="AW5" s="2" t="n">
+      <c r="AX5" s="2" t="n">
         <v>8492623</v>
       </c>
-      <c r="AX5" s="2" t="n">
+      <c r="AY5" s="2" t="n">
         <v>2356319</v>
       </c>
-      <c r="AY5" s="2" t="n">
+      <c r="AZ5" s="2" t="n">
         <v>946687</v>
       </c>
-      <c r="AZ5" s="2" t="n">
+      <c r="BA5" s="2" t="n">
         <v>-88675</v>
       </c>
-      <c r="BA5" s="2" t="n">
+      <c r="BB5" s="2" t="n">
         <v>1064549</v>
       </c>
-      <c r="BB5" s="2" t="n">
+      <c r="BC5" s="2" t="n">
         <v>429510</v>
       </c>
-      <c r="BC5" s="2" t="n">
+      <c r="BD5" s="2" t="n">
         <v>2368710</v>
       </c>
-      <c r="BD5" s="2" t="n">
+      <c r="BE5" s="2" t="n">
         <v>163084</v>
       </c>
-      <c r="BE5" s="2" t="n">
+      <c r="BF5" s="2" t="n">
         <v>2057058</v>
-      </c>
-      <c r="BF5" s="2" t="n">
-        <v>2243093</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
+        <v>-2604621</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="C6" s="2" t="n">
         <v>-1983200</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>24126423</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="E6" s="2" t="n">
         <v>4282220</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>22068176</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>4165514</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>742551</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>2019341</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>11442389</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="K6" s="2" t="n">
         <v>13666100</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="L6" s="2" t="n">
         <v>1092335</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>1206642</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>4018484</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="O6" s="2" t="n">
         <v>455768</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="P6" s="2" t="n">
         <v>7096624</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="Q6" s="2" t="n">
         <v>824387</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <v>1087038</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="S6" s="2" t="n">
         <v>2446934</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="T6" s="2" t="n">
         <v>1218605</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="U6" s="2" t="n">
         <v>90017</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="V6" s="2" t="n">
         <v>107446306</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="W6" s="2" t="n">
         <v>17923607</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="X6" s="2" t="n">
         <v>4168932</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="Y6" s="2" t="n">
         <v>105739</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Z6" s="2" t="n">
         <v>11478102</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="AA6" s="2" t="n">
         <v>18115877</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AB6" s="2" t="n">
         <v>3459545</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AC6" s="2" t="n">
         <v>3106638</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AD6" s="2" t="n">
         <v>2346526</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AE6" s="2" t="n">
         <v>-1161974</v>
       </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AF6" s="2" t="n">
         <v>205783</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AG6" s="2" t="n">
         <v>8127193</v>
       </c>
-      <c r="AG6" s="2" t="n">
+      <c r="AH6" s="2" t="n">
         <v>267082</v>
       </c>
-      <c r="AH6" s="2" t="n">
+      <c r="AI6" s="2" t="n">
         <v>291457</v>
       </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>4524420</v>
       </c>
-      <c r="AJ6" s="2" t="n">
+      <c r="AK6" s="2" t="n">
         <v>989990</v>
       </c>
-      <c r="AK6" s="2" t="n">
+      <c r="AL6" s="2" t="n">
         <v>4018484</v>
       </c>
-      <c r="AL6" s="2" t="n">
+      <c r="AM6" s="2" t="n">
         <v>6107993</v>
       </c>
-      <c r="AO6" s="2" t="n">
+      <c r="AP6" s="2" t="n">
         <v>592282</v>
       </c>
-      <c r="AP6" s="2" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>84807576</v>
       </c>
-      <c r="AQ6" s="2" t="n">
+      <c r="AR6" s="2" t="n">
         <v>21502474</v>
       </c>
-      <c r="AR6" s="2" t="n">
+      <c r="AS6" s="2" t="n">
         <v>84219358</v>
       </c>
-      <c r="AS6" s="2" t="n">
+      <c r="AT6" s="2" t="n">
         <v>64091546</v>
       </c>
-      <c r="AT6" s="2" t="n">
+      <c r="AU6" s="2" t="n">
         <v>1191951</v>
       </c>
-      <c r="AU6" s="2" t="n">
+      <c r="AV6" s="2" t="n">
         <v>11180633</v>
       </c>
-      <c r="AV6" s="2" t="n">
+      <c r="AW6" s="2" t="n">
         <v>2281472</v>
       </c>
-      <c r="AW6" s="2" t="n">
+      <c r="AX6" s="2" t="n">
         <v>8829194</v>
       </c>
-      <c r="AX6" s="2" t="n">
+      <c r="AY6" s="2" t="n">
         <v>2331164</v>
       </c>
-      <c r="AY6" s="2" t="n">
+      <c r="AZ6" s="2" t="n">
         <v>467050</v>
       </c>
-      <c r="AZ6" s="2" t="n">
+      <c r="BA6" s="2" t="n">
         <v>-107396</v>
       </c>
-      <c r="BA6" s="2" t="n">
+      <c r="BB6" s="2" t="n">
         <v>1258886</v>
       </c>
-      <c r="BB6" s="2" t="n">
+      <c r="BC6" s="2" t="n">
         <v>-5002162</v>
       </c>
-      <c r="BC6" s="2" t="n">
+      <c r="BD6" s="2" t="n">
         <v>3081253</v>
       </c>
-      <c r="BD6" s="2" t="n">
+      <c r="BE6" s="2" t="n">
         <v>62291</v>
       </c>
-      <c r="BE6" s="2" t="n">
+      <c r="BF6" s="2" t="n">
         <v>236341</v>
-      </c>
-      <c r="BF6" s="2" t="n">
-        <v>-2604621</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
+        <v>375923</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="C7" s="2" t="n">
         <v>1827843</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>20903035</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="E7" s="2" t="n">
         <v>3500671</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>21393257</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="G7" s="2" t="n">
         <v>3338801</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>751405</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="I7" s="2" t="n">
         <v>1729163</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>12434352</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="K7" s="2" t="n">
         <v>12137144</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="L7" s="2" t="n">
         <v>1630271</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>366762</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>2311525</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="O7" s="2" t="n">
         <v>478037</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="P7" s="2" t="n">
         <v>7449476</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="Q7" s="2" t="n">
         <v>177423</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <v>1236755</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="S7" s="2" t="n">
         <v>2932148</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="T7" s="2" t="n">
         <v>1353033</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="U7" s="2" t="n">
         <v>70942</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="V7" s="2" t="n">
         <v>100079497</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="W7" s="2" t="n">
         <v>12589032</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="X7" s="2" t="n">
         <v>3377374</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="Y7" s="2" t="n">
         <v>67779</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Z7" s="2" t="n">
         <v>8498021</v>
       </c>
-      <c r="Z7" s="2" t="n">
+      <c r="AA7" s="2" t="n">
         <v>16492534</v>
       </c>
-      <c r="AA7" s="2" t="n">
+      <c r="AB7" s="2" t="n">
         <v>3682564</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AC7" s="2" t="n">
         <v>2776366</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AD7" s="2" t="n">
         <v>2462006</v>
       </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AE7" s="2" t="n">
         <v>-1251859</v>
       </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AF7" s="2" t="n">
         <v>34963</v>
       </c>
-      <c r="AF7" s="2" t="n">
+      <c r="AG7" s="2" t="n">
         <v>8478144</v>
       </c>
-      <c r="AG7" s="2" t="n">
+      <c r="AH7" s="2" t="n">
         <v>408845</v>
       </c>
-      <c r="AH7" s="2" t="n">
+      <c r="AI7" s="2" t="n">
         <v>601111</v>
       </c>
-      <c r="AI7" s="2" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>2753925</v>
       </c>
-      <c r="AJ7" s="2" t="n">
+      <c r="AK7" s="2" t="n">
         <v>5385673</v>
       </c>
-      <c r="AK7" s="2" t="n">
+      <c r="AL7" s="2" t="n">
         <v>2311525</v>
       </c>
-      <c r="AL7" s="2" t="n">
+      <c r="AM7" s="2" t="n">
         <v>6119590</v>
       </c>
-      <c r="AO7" s="2" t="n">
+      <c r="AP7" s="2" t="n">
         <v>1430509</v>
       </c>
-      <c r="AP7" s="2" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>76453808</v>
       </c>
-      <c r="AQ7" s="2" t="n">
+      <c r="AR7" s="2" t="n">
         <v>22532648</v>
       </c>
-      <c r="AR7" s="2" t="n">
+      <c r="AS7" s="2" t="n">
         <v>75233724</v>
       </c>
-      <c r="AS7" s="2" t="n">
+      <c r="AT7" s="2" t="n">
         <v>53125904</v>
       </c>
-      <c r="AT7" s="2" t="n">
+      <c r="AU7" s="2" t="n">
         <v>1079532</v>
       </c>
-      <c r="AU7" s="2" t="n">
+      <c r="AV7" s="2" t="n">
         <v>10003850</v>
       </c>
-      <c r="AV7" s="2" t="n">
+      <c r="AW7" s="2" t="n">
         <v>2202267</v>
       </c>
-      <c r="AW7" s="2" t="n">
+      <c r="AX7" s="2" t="n">
         <v>7383892</v>
       </c>
-      <c r="AX7" s="2" t="n">
+      <c r="AY7" s="2" t="n">
         <v>2460303</v>
       </c>
-      <c r="AY7" s="2" t="n">
+      <c r="AZ7" s="2" t="n">
         <v>1589486</v>
       </c>
-      <c r="AZ7" s="2" t="n">
+      <c r="BA7" s="2" t="n">
         <v>204010</v>
       </c>
-      <c r="BA7" s="2" t="n">
+      <c r="BB7" s="2" t="n">
         <v>914406</v>
       </c>
-      <c r="BB7" s="2" t="n">
+      <c r="BC7" s="2" t="n">
         <v>-1493094</v>
       </c>
-      <c r="BC7" s="2" t="n">
+      <c r="BD7" s="2" t="n">
         <v>3465428</v>
       </c>
-      <c r="BD7" s="2" t="n">
+      <c r="BE7" s="2" t="n">
         <v>144491</v>
       </c>
-      <c r="BE7" s="2" t="n">
+      <c r="BF7" s="2" t="n">
         <v>75979</v>
-      </c>
-      <c r="BF7" s="2" t="n">
-        <v>375923</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
+        <v>1558172</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="C8" s="2" t="n">
         <v>3538222</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="D8" s="2" t="n">
         <v>18115874</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="E8" s="2" t="n">
         <v>2086771</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>25152963</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="G8" s="2" t="n">
         <v>3160705</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>682778</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>2159677</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <v>19592298</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="K8" s="2" t="n">
         <v>11033468</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="L8" s="2" t="n">
         <v>1739664</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="M8" s="2" t="n">
         <v>266501</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="N8" s="2" t="n">
         <v>1701978</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="O8" s="2" t="n">
         <v>461316</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="P8" s="2" t="n">
         <v>7348292</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="Q8" s="2" t="n">
         <v>262863</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>1364695</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="S8" s="2" t="n">
         <v>3483505</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="T8" s="2" t="n">
         <v>1284493</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="U8" s="2" t="n">
         <v>53287</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="V8" s="2" t="n">
         <v>106214196</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="W8" s="2" t="n">
         <v>10998077</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="X8" s="2" t="n">
         <v>3175432</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="Y8" s="2" t="n">
         <v>70604</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Z8" s="2" t="n">
         <v>10381688</v>
       </c>
-      <c r="Z8" s="2" t="n">
+      <c r="AA8" s="2" t="n">
         <v>19244400</v>
       </c>
-      <c r="AA8" s="2" t="n">
+      <c r="AB8" s="2" t="n">
         <v>3825106</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AC8" s="2" t="n">
         <v>3305520</v>
       </c>
-      <c r="AC8" s="2" t="n">
+      <c r="AD8" s="2" t="n">
         <v>2806947</v>
       </c>
-      <c r="AD8" s="2" t="n">
+      <c r="AE8" s="2" t="n">
         <v>-2790280</v>
       </c>
-      <c r="AE8" s="2" t="n">
+      <c r="AF8" s="2" t="n">
         <v>8113</v>
       </c>
-      <c r="AF8" s="2" t="n">
+      <c r="AG8" s="2" t="n">
         <v>7531970</v>
       </c>
-      <c r="AG8" s="2" t="n">
+      <c r="AH8" s="2" t="n">
         <v>451507</v>
       </c>
-      <c r="AH8" s="2" t="n">
+      <c r="AI8" s="2" t="n">
         <v>741391</v>
       </c>
-      <c r="AI8" s="2" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>6174257</v>
       </c>
-      <c r="AJ8" s="2" t="n">
+      <c r="AK8" s="2" t="n">
         <v>10039687</v>
       </c>
-      <c r="AK8" s="2" t="n">
+      <c r="AL8" s="2" t="n">
         <v>1701978</v>
       </c>
-      <c r="AO8" s="2" t="n">
+      <c r="AP8" s="2" t="n">
         <v>1349356</v>
       </c>
-      <c r="AP8" s="2" t="n">
+      <c r="AQ8" s="2" t="n">
         <v>79921692</v>
       </c>
-      <c r="AQ8" s="2" t="n">
+      <c r="AR8" s="2" t="n">
         <v>24878574</v>
       </c>
-      <c r="AR8" s="2" t="n">
+      <c r="AS8" s="2" t="n">
         <v>81471275</v>
       </c>
-      <c r="AS8" s="2" t="n">
+      <c r="AT8" s="2" t="n">
         <v>55760104</v>
       </c>
-      <c r="AT8" s="2" t="n">
+      <c r="AU8" s="2" t="n">
         <v>1331243</v>
       </c>
-      <c r="AU8" s="2" t="n">
+      <c r="AV8" s="2" t="n">
         <v>10259165</v>
       </c>
-      <c r="AV8" s="2" t="n">
+      <c r="AW8" s="2" t="n">
         <v>2031445</v>
       </c>
-      <c r="AW8" s="2" t="n">
+      <c r="AX8" s="2" t="n">
         <v>9008537</v>
       </c>
-      <c r="AX8" s="2" t="n">
+      <c r="AY8" s="2" t="n">
         <v>2100977</v>
       </c>
-      <c r="AY8" s="2" t="n">
+      <c r="AZ8" s="2" t="n">
         <v>1202232</v>
       </c>
-      <c r="AZ8" s="2" t="n">
+      <c r="BA8" s="2" t="n">
         <v>148282</v>
       </c>
-      <c r="BA8" s="2" t="n">
+      <c r="BB8" s="2" t="n">
         <v>134474</v>
       </c>
-      <c r="BB8" s="2" t="n">
+      <c r="BC8" s="2" t="n">
         <v>60328</v>
       </c>
-      <c r="BC8" s="2" t="n">
+      <c r="BD8" s="2" t="n">
         <v>3787643</v>
       </c>
-      <c r="BD8" s="2" t="n">
+      <c r="BE8" s="2" t="n">
         <v>309749</v>
       </c>
-      <c r="BE8" s="2" t="n">
+      <c r="BF8" s="2" t="n">
         <v>1413930</v>
-      </c>
-      <c r="BF8" s="2" t="n">
-        <v>1558172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
+        <v>2536966</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="C9" s="2" t="n">
         <v>4303532</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>28025009</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="E9" s="2" t="n">
         <v>3463358</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>25251287</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="G9" s="2" t="n">
         <v>1272068</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>640113</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="I9" s="2" t="n">
         <v>2970258</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <v>19731741</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="K9" s="2" t="n">
         <v>13928446</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="L9" s="2" t="n">
         <v>2381467</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>362831</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="N9" s="2" t="n">
         <v>1593528</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="O9" s="2" t="n">
         <v>560939</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="P9" s="2" t="n">
         <v>7692175</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="Q9" s="2" t="n">
         <v>643789</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="R9" s="2" t="n">
         <v>4224446</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="S9" s="2" t="n">
         <v>789815</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="T9" s="2" t="n">
         <v>1434143</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="U9" s="2" t="n">
         <v>32790</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="V9" s="2" t="n">
         <v>120893897</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="W9" s="2" t="n">
         <v>7907572</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="X9" s="2" t="n">
         <v>1273346</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="Y9" s="2" t="n">
         <v>19840</v>
       </c>
-      <c r="Y9" s="2" t="n">
+      <c r="Z9" s="2" t="n">
         <v>9885129</v>
       </c>
-      <c r="Z9" s="2" t="n">
+      <c r="AA9" s="2" t="n">
         <v>22932866</v>
       </c>
-      <c r="AA9" s="2" t="n">
+      <c r="AB9" s="2" t="n">
         <v>4423103</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AC9" s="2" t="n">
         <v>4035638</v>
       </c>
-      <c r="AC9" s="2" t="n">
+      <c r="AD9" s="2" t="n">
         <v>3644694</v>
       </c>
-      <c r="AD9" s="2" t="n">
+      <c r="AE9" s="2" t="n">
         <v>-2329886</v>
       </c>
-      <c r="AE9" s="2" t="n">
+      <c r="AF9" s="2" t="n">
         <v>7418</v>
       </c>
-      <c r="AF9" s="2" t="n">
+      <c r="AG9" s="2" t="n">
         <v>6005130</v>
       </c>
-      <c r="AG9" s="2" t="n">
+      <c r="AH9" s="2" t="n">
         <v>438920</v>
       </c>
-      <c r="AH9" s="2" t="n">
+      <c r="AI9" s="2" t="n">
         <v>776682</v>
       </c>
-      <c r="AI9" s="2" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>4617604</v>
       </c>
-      <c r="AJ9" s="2" t="n">
+      <c r="AK9" s="2" t="n">
         <v>6016254</v>
       </c>
-      <c r="AK9" s="2" t="n">
+      <c r="AL9" s="2" t="n">
         <v>1593528</v>
       </c>
-      <c r="AO9" s="2" t="n">
+      <c r="AP9" s="2" t="n">
         <v>1341011</v>
       </c>
-      <c r="AP9" s="2" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>77545292</v>
       </c>
-      <c r="AQ9" s="2" t="n">
+      <c r="AR9" s="2" t="n">
         <v>29660094</v>
       </c>
-      <c r="AR9" s="2" t="n">
+      <c r="AS9" s="2" t="n">
         <v>100186389</v>
       </c>
-      <c r="AS9" s="2" t="n">
+      <c r="AT9" s="2" t="n">
         <v>69100447</v>
       </c>
-      <c r="AT9" s="2" t="n">
+      <c r="AU9" s="2" t="n">
         <v>1303580</v>
       </c>
-      <c r="AU9" s="2" t="n">
+      <c r="AV9" s="2" t="n">
         <v>11771666</v>
       </c>
-      <c r="AV9" s="2" t="n">
+      <c r="AW9" s="2" t="n">
         <v>2383355</v>
       </c>
-      <c r="AW9" s="2" t="n">
+      <c r="AX9" s="2" t="n">
         <v>12200542</v>
       </c>
-      <c r="AX9" s="2" t="n">
+      <c r="AY9" s="2" t="n">
         <v>1430794</v>
       </c>
-      <c r="AY9" s="2" t="n">
+      <c r="AZ9" s="2" t="n">
         <v>2187471</v>
       </c>
-      <c r="AZ9" s="2" t="n">
+      <c r="BA9" s="2" t="n">
         <v>-183682</v>
       </c>
-      <c r="BA9" s="2" t="n">
+      <c r="BB9" s="2" t="n">
         <v>695619</v>
       </c>
-      <c r="BB9" s="2" t="n">
+      <c r="BC9" s="2" t="n">
         <v>320471</v>
       </c>
-      <c r="BC9" s="2" t="n">
+      <c r="BD9" s="2" t="n">
         <v>4442945</v>
       </c>
-      <c r="BD9" s="2" t="n">
+      <c r="BE9" s="2" t="n">
         <v>459884</v>
       </c>
-      <c r="BE9" s="2" t="n">
+      <c r="BF9" s="2" t="n">
         <v>4367184</v>
-      </c>
-      <c r="BF9" s="2" t="n">
-        <v>2536966</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
+        <v>-4224145</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="C10" s="2" t="n">
         <v>-767751</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="D10" s="2" t="n">
         <v>32349914</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="E10" s="2" t="n">
         <v>1984493</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>25998188</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="G10" s="2" t="n">
         <v>2261280</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>1739691</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="I10" s="2" t="n">
         <v>4430072</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="J10" s="2" t="n">
         <v>26810568</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="K10" s="2" t="n">
         <v>9345123</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="L10" s="2" t="n">
         <v>2659667</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="M10" s="2" t="n">
         <v>1376563</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="N10" s="2" t="n">
         <v>1391746</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="O10" s="2" t="n">
         <v>665876</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="P10" s="2" t="n">
         <v>7516241</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="Q10" s="2" t="n">
         <v>1729450</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="R10" s="2" t="n">
         <v>4354096</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="S10" s="2" t="n">
         <v>1365890</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="T10" s="2" t="n">
         <v>1604575</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="U10" s="2" t="n">
         <v>34953</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="V10" s="2" t="n">
         <v>141640910</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="W10" s="2" t="n">
         <v>15132120</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="X10" s="2" t="n">
         <v>2263015</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="Y10" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="Z10" s="2" t="n">
         <v>11689957</v>
       </c>
-      <c r="Z10" s="2" t="n">
+      <c r="AA10" s="2" t="n">
         <v>25243881</v>
       </c>
-      <c r="AA10" s="2" t="n">
+      <c r="AB10" s="2" t="n">
         <v>5876790</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AC10" s="2" t="n">
         <v>8092164</v>
       </c>
-      <c r="AC10" s="2" t="n">
+      <c r="AD10" s="2" t="n">
         <v>5169051</v>
       </c>
-      <c r="AD10" s="2" t="n">
+      <c r="AE10" s="2" t="n">
         <v>997189</v>
       </c>
-      <c r="AE10" s="2" t="n">
+      <c r="AF10" s="2" t="n">
         <v>50317</v>
       </c>
-      <c r="AF10" s="2" t="n">
+      <c r="AG10" s="2" t="n">
         <v>13660418</v>
       </c>
-      <c r="AG10" s="2" t="n">
+      <c r="AH10" s="2" t="n">
         <v>712657</v>
       </c>
-      <c r="AH10" s="2" t="n">
+      <c r="AI10" s="2" t="n">
         <v>887366</v>
       </c>
-      <c r="AI10" s="2" t="n">
+      <c r="AJ10" s="2" t="n">
         <v>1932025</v>
       </c>
-      <c r="AJ10" s="2" t="n">
+      <c r="AK10" s="2" t="n">
         <v>5018276</v>
       </c>
-      <c r="AK10" s="2" t="n">
+      <c r="AL10" s="2" t="n">
         <v>1391746</v>
       </c>
-      <c r="AO10" s="2" t="n">
+      <c r="AP10" s="2" t="n">
         <v>1563991</v>
       </c>
-      <c r="AP10" s="2" t="n">
+      <c r="AQ10" s="2" t="n">
         <v>100755820</v>
       </c>
-      <c r="AQ10" s="2" t="n">
+      <c r="AR10" s="2" t="n">
         <v>26401151</v>
       </c>
-      <c r="AR10" s="2" t="n">
+      <c r="AS10" s="2" t="n">
         <v>101233182</v>
       </c>
-      <c r="AS10" s="2" t="n">
+      <c r="AT10" s="2" t="n">
         <v>70100658</v>
       </c>
-      <c r="AT10" s="2" t="n">
+      <c r="AU10" s="2" t="n">
         <v>868208</v>
       </c>
-      <c r="AU10" s="2" t="n">
+      <c r="AV10" s="2" t="n">
         <v>12458152</v>
       </c>
-      <c r="AV10" s="2" t="n">
+      <c r="AW10" s="2" t="n">
         <v>2487918</v>
       </c>
-      <c r="AW10" s="2" t="n">
+      <c r="AX10" s="2" t="n">
         <v>12762055</v>
       </c>
-      <c r="AX10" s="2" t="n">
+      <c r="AY10" s="2" t="n">
         <v>207773</v>
       </c>
-      <c r="AY10" s="2" t="n">
+      <c r="AZ10" s="2" t="n">
         <v>2853127</v>
       </c>
-      <c r="AZ10" s="2" t="n">
+      <c r="BA10" s="2" t="n">
         <v>29978</v>
       </c>
-      <c r="BA10" s="2" t="n">
+      <c r="BB10" s="2" t="n">
         <v>1640279</v>
       </c>
-      <c r="BB10" s="2" t="n">
+      <c r="BC10" s="2" t="n">
         <v>1165548</v>
       </c>
-      <c r="BC10" s="2" t="n">
+      <c r="BD10" s="2" t="n">
         <v>4361548</v>
       </c>
-      <c r="BD10" s="2" t="n">
+      <c r="BE10" s="2" t="n">
         <v>6294847</v>
       </c>
-      <c r="BE10" s="2" t="n">
+      <c r="BF10" s="2" t="n">
         <v>5162612</v>
-      </c>
-      <c r="BF10" s="2" t="n">
-        <v>-4224145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
+        <v>5386342</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="C11" s="2" t="n">
         <v>6718924</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="D11" s="2" t="n">
         <v>33407879</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="E11" s="2" t="n">
         <v>2052945</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="F11" s="2" t="n">
         <v>24345283</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="G11" s="2" t="n">
         <v>1080449</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="H11" s="2" t="n">
         <v>591664</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="I11" s="2" t="n">
         <v>3629933</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="J11" s="2" t="n">
         <v>26234139</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="K11" s="2" t="n">
         <v>9012909</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="L11" s="2" t="n">
         <v>3181668</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="M11" s="2" t="n">
         <v>1244760</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="N11" s="2" t="n">
         <v>2608006</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="O11" s="2" t="n">
         <v>3960597</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="P11" s="2" t="n">
         <v>8694456</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="Q11" s="2" t="n">
         <v>1472986</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="R11" s="2" t="n">
         <v>4741615</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="S11" s="2" t="n">
         <v>1902077</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="T11" s="2" t="n">
         <v>1464250</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="U11" s="2" t="n">
         <v>34983</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="V11" s="2" t="n">
         <v>143962215</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="W11" s="2" t="n">
         <v>14719023</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="X11" s="2" t="n">
         <v>1080472</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="Y11" s="2" t="n">
         <v>49830</v>
       </c>
-      <c r="Y11" s="2" t="n">
+      <c r="Z11" s="2" t="n">
         <v>10848511</v>
       </c>
-      <c r="Z11" s="2" t="n">
+      <c r="AA11" s="2" t="n">
         <v>23614556</v>
       </c>
-      <c r="AA11" s="2" t="n">
+      <c r="AB11" s="2" t="n">
         <v>8050655</v>
       </c>
-      <c r="AB11" s="2" t="n">
+      <c r="AC11" s="2" t="n">
         <v>8702351</v>
       </c>
-      <c r="AC11" s="2" t="n">
+      <c r="AD11" s="2" t="n">
         <v>7389544</v>
       </c>
-      <c r="AD11" s="2" t="n">
+      <c r="AE11" s="2" t="n">
         <v>1263723</v>
       </c>
-      <c r="AE11" s="2" t="n">
+      <c r="AF11" s="2" t="n">
         <v>1322</v>
       </c>
-      <c r="AF11" s="2" t="n">
+      <c r="AG11" s="2" t="n">
         <v>7070099</v>
       </c>
-      <c r="AG11" s="2" t="n">
+      <c r="AH11" s="2" t="n">
         <v>454891</v>
       </c>
-      <c r="AH11" s="2" t="n">
+      <c r="AI11" s="2" t="n">
         <v>533126</v>
       </c>
-      <c r="AI11" s="2" t="n">
+      <c r="AJ11" s="2" t="n">
         <v>3816844</v>
       </c>
-      <c r="AJ11" s="2" t="n">
+      <c r="AK11" s="2" t="n">
         <v>3002146</v>
       </c>
-      <c r="AK11" s="2" t="n">
+      <c r="AL11" s="2" t="n">
         <v>2948006</v>
       </c>
-      <c r="AO11" s="2" t="n">
+      <c r="AP11" s="2" t="n">
         <v>3340669</v>
       </c>
-      <c r="AP11" s="2" t="n">
+      <c r="AQ11" s="2" t="n">
         <v>98582068</v>
       </c>
-      <c r="AQ11" s="2" t="n">
+      <c r="AR11" s="2" t="n">
         <v>31646875</v>
       </c>
-      <c r="AR11" s="2" t="n">
+      <c r="AS11" s="2" t="n">
         <v>108815273</v>
       </c>
-      <c r="AS11" s="2" t="n">
+      <c r="AT11" s="2" t="n">
         <v>75005818</v>
       </c>
-      <c r="AT11" s="2" t="n">
+      <c r="AU11" s="2" t="n">
         <v>942119</v>
       </c>
-      <c r="AU11" s="2" t="n">
+      <c r="AV11" s="2" t="n">
         <v>12104355</v>
       </c>
-      <c r="AV11" s="2" t="n">
+      <c r="AW11" s="2" t="n">
         <v>3057208</v>
       </c>
-      <c r="AW11" s="2" t="n">
+      <c r="AX11" s="2" t="n">
         <v>12962245</v>
       </c>
-      <c r="AX11" s="2" t="n">
+      <c r="AY11" s="2" t="n">
         <v>1043482</v>
       </c>
-      <c r="AY11" s="2" t="n">
+      <c r="AZ11" s="2" t="n">
         <v>2533608</v>
       </c>
-      <c r="AZ11" s="2" t="n">
+      <c r="BA11" s="2" t="n">
         <v>58301</v>
       </c>
-      <c r="BA11" s="2" t="n">
+      <c r="BB11" s="2" t="n">
         <v>2540328</v>
       </c>
-      <c r="BB11" s="2" t="n">
+      <c r="BC11" s="2" t="n">
         <v>6752930</v>
       </c>
-      <c r="BC11" s="2" t="n">
+      <c r="BD11" s="2" t="n">
         <v>159277</v>
       </c>
-      <c r="BD11" s="2" t="n">
+      <c r="BE11" s="2" t="n">
         <v>193283</v>
       </c>
-      <c r="BE11" s="2" t="n">
+      <c r="BF11" s="2" t="n">
         <v>4411945</v>
-      </c>
-      <c r="BF11" s="2" t="n">
-        <v>5386342</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
+        <v>-6949340</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="C12" s="2" t="n">
         <v>-7350203</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="D12" s="2" t="n">
         <v>24289798</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="F12" s="2" t="n">
         <v>21592325</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="G12" s="2" t="n">
         <v>587869</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="H12" s="2" t="n">
         <v>615489</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="I12" s="2" t="n">
         <v>2004870</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="J12" s="2" t="n">
         <v>25011416</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="M12" s="2" t="n">
         <v>843429</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="N12" s="2" t="n">
         <v>432041</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="O12" s="2" t="n">
         <v>3015295</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="P12" s="2" t="n">
         <v>8898068</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="Q12" s="2" t="n">
         <v>1296044</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="R12" s="2" t="n">
         <v>8558488</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="S12" s="2" t="n">
         <v>2732356</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="T12" s="2" t="n">
         <v>2787790</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="V12" s="2" t="n">
         <v>129350749</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="W12" s="2" t="n">
         <v>23739614</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="X12" s="2" t="n">
         <v>591931</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="Y12" s="2" t="n">
         <v>101332</v>
       </c>
-      <c r="Y12" s="2" t="n">
+      <c r="Z12" s="2" t="n">
         <v>7915700</v>
       </c>
-      <c r="Z12" s="2" t="n">
+      <c r="AA12" s="2" t="n">
         <v>19527404</v>
       </c>
-      <c r="AC12" s="2" t="n">
+      <c r="AD12" s="2" t="n">
         <v>6259639</v>
       </c>
-      <c r="AD12" s="2" t="n">
+      <c r="AE12" s="2" t="n">
         <v>954021</v>
       </c>
-      <c r="AF12" s="2" t="n">
+      <c r="AG12" s="2" t="n">
         <v>11135030</v>
       </c>
-      <c r="AG12" s="2" t="n">
+      <c r="AH12" s="2" t="n">
         <v>1261449</v>
       </c>
-      <c r="AH12" s="2" t="n">
+      <c r="AI12" s="2" t="n">
         <v>2167614</v>
       </c>
-      <c r="AI12" s="2" t="n">
+      <c r="AJ12" s="2" t="n">
         <v>1243709</v>
       </c>
-      <c r="AJ12" s="2" t="n">
+      <c r="AK12" s="2" t="n">
         <v>2366568</v>
       </c>
-      <c r="AK12" s="2" t="n">
+      <c r="AL12" s="2" t="n">
         <v>434137</v>
       </c>
-      <c r="AO12" s="2" t="n">
+      <c r="AP12" s="2" t="n">
         <v>3229677</v>
       </c>
-      <c r="AP12" s="2" t="n">
+      <c r="AQ12" s="2" t="n">
         <v>96390074</v>
       </c>
-      <c r="AQ12" s="2" t="n">
+      <c r="AR12" s="2" t="n">
         <v>22897576</v>
       </c>
-      <c r="AR12" s="2" t="n">
+      <c r="AS12" s="2" t="n">
         <v>85513150</v>
       </c>
-      <c r="AS12" s="2" t="n">
+      <c r="AT12" s="2" t="n">
         <v>57367578</v>
       </c>
-      <c r="AT12" s="2" t="n">
+      <c r="AU12" s="2" t="n">
         <v>637725</v>
       </c>
-      <c r="AU12" s="2" t="n">
+      <c r="AV12" s="2" t="n">
         <v>9084489</v>
       </c>
-      <c r="AV12" s="2" t="n">
+      <c r="AW12" s="2" t="n">
         <v>3651498</v>
       </c>
-      <c r="AW12" s="2" t="n">
+      <c r="AX12" s="2" t="n">
         <v>10905584</v>
       </c>
-      <c r="AX12" s="2" t="n">
+      <c r="AY12" s="2" t="n">
         <v>280648</v>
       </c>
-      <c r="AY12" s="2" t="n">
+      <c r="AZ12" s="2" t="n">
         <v>2076863</v>
       </c>
-      <c r="AZ12" s="2" t="n">
+      <c r="BA12" s="2" t="n">
         <v>-861259</v>
       </c>
-      <c r="BA12" s="2" t="n">
+      <c r="BB12" s="2" t="n">
         <v>294486</v>
       </c>
-      <c r="BB12" s="2" t="n">
+      <c r="BC12" s="2" t="n">
         <v>-611951</v>
       </c>
-      <c r="BC12" s="2" t="n">
+      <c r="BD12" s="2" t="n">
         <v>142651</v>
       </c>
-      <c r="BD12" s="2" t="n">
+      <c r="BE12" s="2" t="n">
         <v>6880903</v>
       </c>
-      <c r="BE12" s="2" t="n">
+      <c r="BF12" s="2" t="n">
         <v>3810735</v>
-      </c>
-      <c r="BF12" s="2" t="n">
-        <v>-6949340</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
+        <v>5776669</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="C13" s="2" t="n">
         <v>7161670</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>33309347</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="F13" s="2" t="n">
         <v>19778280</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="G13" s="2" t="n">
         <v>308710</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="H13" s="2" t="n">
         <v>402525</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>1023271</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="J13" s="2" t="n">
         <v>27688508</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="M13" s="2" t="n">
         <v>2819606</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="N13" s="2" t="n">
         <v>200671</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="O13" s="2" t="n">
         <v>2327288</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="P13" s="2" t="n">
         <v>9383488</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="Q13" s="2" t="n">
         <v>1171716</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="R13" s="2" t="n">
         <v>7718820</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="S13" s="2" t="n">
         <v>1876409</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="T13" s="2" t="n">
         <v>2511372</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="V13" s="2" t="n">
         <v>141202135</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="W13" s="2" t="n">
         <v>26645966</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="X13" s="2" t="n">
         <v>310024</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="Y13" s="2" t="n">
         <v>126223</v>
       </c>
-      <c r="Y13" s="2" t="n">
+      <c r="Z13" s="2" t="n">
         <v>9372940</v>
       </c>
-      <c r="Z13" s="2" t="n">
+      <c r="AA13" s="2" t="n">
         <v>18355610</v>
       </c>
-      <c r="AC13" s="2" t="n">
+      <c r="AD13" s="2" t="n">
         <v>8954005</v>
       </c>
-      <c r="AD13" s="2" t="n">
+      <c r="AE13" s="2" t="n">
         <v>888848</v>
       </c>
-      <c r="AF13" s="2" t="n">
+      <c r="AG13" s="2" t="n">
         <v>4621118</v>
       </c>
-      <c r="AG13" s="2" t="n">
+      <c r="AH13" s="2" t="n">
         <v>2656024</v>
       </c>
-      <c r="AH13" s="2" t="n">
+      <c r="AI13" s="2" t="n">
         <v>1966464</v>
       </c>
-      <c r="AI13" s="2" t="n">
+      <c r="AJ13" s="2" t="n">
         <v>612261</v>
       </c>
-      <c r="AJ13" s="2" t="n">
+      <c r="AK13" s="2" t="n">
         <v>10045093</v>
       </c>
-      <c r="AK13" s="2" t="n">
+      <c r="AL13" s="2" t="n">
         <v>200858</v>
       </c>
-      <c r="AO13" s="2" t="n">
+      <c r="AP13" s="2" t="n">
         <v>3013487</v>
       </c>
-      <c r="AP13" s="2" t="n">
+      <c r="AQ13" s="2" t="n">
         <v>103247837</v>
       </c>
-      <c r="AQ13" s="2" t="n">
+      <c r="AR13" s="2" t="n">
         <v>28826868</v>
       </c>
-      <c r="AR13" s="2" t="n">
+      <c r="AS13" s="2" t="n">
         <v>90736582</v>
       </c>
-      <c r="AS13" s="2" t="n">
+      <c r="AT13" s="2" t="n">
         <v>57008377</v>
       </c>
-      <c r="AT13" s="2" t="n">
+      <c r="AU13" s="2" t="n">
         <v>930511</v>
       </c>
-      <c r="AU13" s="2" t="n">
+      <c r="AV13" s="2" t="n">
         <v>7868722</v>
       </c>
-      <c r="AV13" s="2" t="n">
+      <c r="AW13" s="2" t="n">
         <v>4772823</v>
       </c>
-      <c r="AW13" s="2" t="n">
+      <c r="AX13" s="2" t="n">
         <v>12547898</v>
       </c>
-      <c r="AX13" s="2" t="n">
+      <c r="AY13" s="2" t="n">
         <v>965955</v>
       </c>
-      <c r="AY13" s="2" t="n">
+      <c r="AZ13" s="2" t="n">
         <v>-1281070</v>
       </c>
-      <c r="AZ13" s="2" t="n">
+      <c r="BA13" s="2" t="n">
         <v>-213992</v>
       </c>
-      <c r="BA13" s="2" t="n">
+      <c r="BB13" s="2" t="n">
         <v>249445</v>
       </c>
-      <c r="BB13" s="2" t="n">
+      <c r="BC13" s="2" t="n">
         <v>7552182</v>
       </c>
-      <c r="BC13" s="2" t="n">
+      <c r="BD13" s="2" t="n">
         <v>183700</v>
       </c>
-      <c r="BD13" s="2" t="n">
+      <c r="BE13" s="2" t="n">
         <v>574212</v>
       </c>
-      <c r="BE13" s="2" t="n">
+      <c r="BF13" s="2" t="n">
         <v>2875066</v>
-      </c>
-      <c r="BF13" s="2" t="n">
-        <v>5776669</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
+        <v>4721692</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="C14" s="2" t="n">
         <v>5064166</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="D14" s="2" t="n">
         <v>35659832</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="F14" s="2" t="n">
         <v>15891020</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="G14" s="2" t="n">
         <v>199872</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="H14" s="2" t="n">
         <v>321792</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="I14" s="2" t="n">
         <v>1152479</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="J14" s="2" t="n">
         <v>33689306</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="M14" s="2" t="n">
         <v>2679578</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="N14" s="2" t="n">
         <v>347920</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="O14" s="2" t="n">
         <v>1713803</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="P14" s="2" t="n">
         <v>11913942</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="Q14" s="2" t="n">
         <v>1039900</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="R14" s="2" t="n">
         <v>9367282</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="S14" s="2" t="n">
         <v>2072857</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="T14" s="2" t="n">
         <v>3437101</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="V14" s="2" t="n">
         <v>150634906</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="W14" s="2" t="n">
         <v>10559160</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="X14" s="2" t="n">
         <v>201484</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="Y14" s="2" t="n">
         <v>153961</v>
       </c>
-      <c r="Y14" s="2" t="n">
+      <c r="Z14" s="2" t="n">
         <v>11364056</v>
       </c>
-      <c r="Z14" s="2" t="n">
+      <c r="AA14" s="2" t="n">
         <v>17151733</v>
       </c>
-      <c r="AC14" s="2" t="n">
+      <c r="AD14" s="2" t="n">
         <v>10545495</v>
       </c>
-      <c r="AD14" s="2" t="n">
+      <c r="AE14" s="2" t="n">
         <v>878201</v>
       </c>
-      <c r="AF14" s="2" t="n">
+      <c r="AG14" s="2" t="n">
         <v>4352802</v>
       </c>
-      <c r="AG14" s="2" t="n">
+      <c r="AH14" s="2" t="n">
         <v>2228313</v>
       </c>
-      <c r="AH14" s="2" t="n">
+      <c r="AI14" s="2" t="n">
         <v>2085234</v>
       </c>
-      <c r="AI14" s="2" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>2104677</v>
       </c>
-      <c r="AJ14" s="2" t="n">
+      <c r="AK14" s="2" t="n">
         <v>22614304</v>
       </c>
-      <c r="AK14" s="2" t="n">
+      <c r="AL14" s="2" t="n">
         <v>353446</v>
       </c>
-      <c r="AO14" s="2" t="n">
+      <c r="AP14" s="2" t="n">
         <v>3924609</v>
       </c>
-      <c r="AP14" s="2" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>104512400</v>
       </c>
-      <c r="AQ14" s="2" t="n">
+      <c r="AR14" s="2" t="n">
         <v>43296808</v>
       </c>
-      <c r="AR14" s="2" t="n">
+      <c r="AS14" s="2" t="n">
         <v>101450670</v>
       </c>
-      <c r="AS14" s="2" t="n">
+      <c r="AT14" s="2" t="n">
         <v>69379215</v>
       </c>
-      <c r="AT14" s="2" t="n">
+      <c r="AU14" s="2" t="n">
         <v>684617</v>
       </c>
-      <c r="AU14" s="2" t="n">
+      <c r="AV14" s="2" t="n">
         <v>7578837</v>
       </c>
-      <c r="AV14" s="2" t="n">
+      <c r="AW14" s="2" t="n">
         <v>4994996</v>
       </c>
-      <c r="AW14" s="2" t="n">
+      <c r="AX14" s="2" t="n">
         <v>14797025</v>
       </c>
-      <c r="AX14" s="2" t="n">
+      <c r="AY14" s="2" t="n">
         <v>420537</v>
       </c>
-      <c r="AY14" s="2" t="n">
+      <c r="AZ14" s="2" t="n">
         <v>-209715</v>
       </c>
-      <c r="AZ14" s="2" t="n">
+      <c r="BA14" s="2" t="n">
         <v>39023</v>
       </c>
-      <c r="BA14" s="2" t="n">
+      <c r="BB14" s="2" t="n">
         <v>906406</v>
       </c>
-      <c r="BB14" s="2" t="n">
+      <c r="BC14" s="2" t="n">
         <v>5470720</v>
       </c>
-      <c r="BC14" s="2" t="n">
+      <c r="BD14" s="2" t="n">
         <v>237759</v>
       </c>
-      <c r="BD14" s="2" t="n">
+      <c r="BE14" s="2" t="n">
         <v>644313</v>
       </c>
-      <c r="BE14" s="2" t="n">
+      <c r="BF14" s="2" t="n">
         <v>2825698</v>
-      </c>
-      <c r="BF14" s="2" t="n">
-        <v>4721692</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
+        <v>1451451</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="C15" s="2" t="n">
         <v>1727734</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="D15" s="2" t="n">
         <v>6483170</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="E15" s="2" t="n">
         <v>1656258</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="F15" s="2" t="n">
         <v>7098949</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="G15" s="2" t="n">
         <v>153668</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="H15" s="2" t="n">
         <v>311362</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="I15" s="2" t="n">
         <v>689889</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="J15" s="2" t="n">
         <v>5363430</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="K15" s="2" t="n">
         <v>8606291</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="L15" s="2" t="n">
         <v>43464</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="M15" s="2" t="n">
         <v>581007</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="N15" s="2" t="n">
         <v>3142709</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="O15" s="2" t="n">
         <v>137019</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="P15" s="2" t="n">
         <v>3038063</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="Q15" s="2" t="n">
         <v>931090</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="R15" s="2" t="n">
         <v>224848</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="S15" s="2" t="n">
         <v>258991</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="T15" s="2" t="n">
         <v>295750</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="U15" s="2" t="n">
         <v>33494</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="V15" s="2" t="n">
         <v>39173096</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="W15" s="2" t="n">
         <v>2893855</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="X15" s="2" t="n">
         <v>153668</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="Y15" s="2" t="n">
         <v>7876</v>
       </c>
-      <c r="Y15" s="2" t="n">
+      <c r="Z15" s="2" t="n">
         <v>3946429</v>
       </c>
-      <c r="Z15" s="2" t="n">
+      <c r="AA15" s="2" t="n">
         <v>7856240</v>
       </c>
-      <c r="AA15" s="2" t="n">
+      <c r="AB15" s="2" t="n">
         <v>1597314</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AC15" s="2" t="n">
         <v>1491219</v>
       </c>
-      <c r="AC15" s="2" t="n">
+      <c r="AD15" s="2" t="n">
         <v>1241839</v>
       </c>
-      <c r="AD15" s="2" t="n">
+      <c r="AE15" s="2" t="n">
         <v>-1342330</v>
       </c>
-      <c r="AE15" s="2" t="n">
+      <c r="AF15" s="2" t="n">
         <v>41180</v>
       </c>
-      <c r="AF15" s="2" t="n">
+      <c r="AG15" s="2" t="n">
         <v>1314057</v>
       </c>
-      <c r="AG15" s="2" t="n">
+      <c r="AH15" s="2" t="n">
         <v>101695</v>
       </c>
-      <c r="AH15" s="2" t="n">
+      <c r="AI15" s="2" t="n">
         <v>126042</v>
       </c>
-      <c r="AI15" s="2" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>1509569</v>
       </c>
-      <c r="AJ15" s="2" t="n">
+      <c r="AK15" s="2" t="n">
         <v>2085229</v>
       </c>
-      <c r="AK15" s="2" t="n">
+      <c r="AL15" s="2" t="n">
         <v>3142709</v>
       </c>
-      <c r="AM15" s="2" t="n">
+      <c r="AN15" s="2" t="n">
         <v>80000</v>
       </c>
-      <c r="AP15" s="2" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>26284688</v>
       </c>
-      <c r="AQ15" s="2" t="n">
+      <c r="AR15" s="2" t="n">
         <v>12137161</v>
       </c>
-      <c r="AR15" s="2" t="n">
+      <c r="AS15" s="2" t="n">
         <v>34777181</v>
       </c>
-      <c r="AS15" s="2" t="n">
+      <c r="AT15" s="2" t="n">
         <v>23004541</v>
       </c>
-      <c r="AT15" s="2" t="n">
+      <c r="AU15" s="2" t="n">
         <v>280266</v>
       </c>
-      <c r="AU15" s="2" t="n">
+      <c r="AV15" s="2" t="n">
         <v>4395125</v>
       </c>
-      <c r="AV15" s="2" t="n">
+      <c r="AW15" s="2" t="n">
         <v>1777554</v>
       </c>
-      <c r="AW15" s="2" t="n">
+      <c r="AX15" s="2" t="n">
         <v>3210433</v>
       </c>
-      <c r="AX15" s="2" t="n">
+      <c r="AY15" s="2" t="n">
         <v>494371</v>
       </c>
-      <c r="AY15" s="2" t="n">
+      <c r="AZ15" s="2" t="n">
         <v>789140</v>
       </c>
-      <c r="AZ15" s="2" t="n">
+      <c r="BA15" s="2" t="n">
         <v>115566</v>
       </c>
-      <c r="BA15" s="2" t="n">
+      <c r="BB15" s="2" t="n">
         <v>59437</v>
       </c>
-      <c r="BB15" s="2" t="n">
+      <c r="BC15" s="2" t="n">
         <v>1000754</v>
       </c>
-      <c r="BC15" s="2" t="n">
+      <c r="BD15" s="2" t="n">
         <v>906133</v>
       </c>
-      <c r="BD15" s="2" t="n">
+      <c r="BE15" s="2" t="n">
         <v>179153</v>
       </c>
-      <c r="BE15" s="2" t="n">
+      <c r="BF15" s="2" t="n">
         <v>751247</v>
-      </c>
-      <c r="BF15" s="2" t="n">
-        <v>1451451</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
+        <v>903612</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="C16" s="2" t="n">
         <v>1030690</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>4311060</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="E16" s="2" t="n">
         <v>1658406</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>5329628</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="G16" s="2" t="n">
         <v>152848</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="H16" s="2" t="n">
         <v>51757</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="I16" s="2" t="n">
         <v>441039</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="J16" s="2" t="n">
         <v>2481155</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="K16" s="2" t="n">
         <v>5833480</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="L16" s="2" t="n">
         <v>43488</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="M16" s="2" t="n">
         <v>372703</v>
       </c>
-      <c r="M16" s="2" t="n">
+      <c r="N16" s="2" t="n">
         <v>1399206</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="O16" s="2" t="n">
         <v>57193</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="P16" s="2" t="n">
         <v>2591858</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="Q16" s="2" t="n">
         <v>469636</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="R16" s="2" t="n">
         <v>152859</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="S16" s="2" t="n">
         <v>129751</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="T16" s="2" t="n">
         <v>210923</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="U16" s="2" t="n">
         <v>40415</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="V16" s="2" t="n">
         <v>25760693</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="W16" s="2" t="n">
         <v>945726</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="X16" s="2" t="n">
         <v>152848</v>
       </c>
-      <c r="Y16" s="2" t="n">
+      <c r="Z16" s="2" t="n">
         <v>2242566</v>
       </c>
-      <c r="Z16" s="2" t="n">
+      <c r="AA16" s="2" t="n">
         <v>4749099</v>
       </c>
-      <c r="AA16" s="2" t="n">
+      <c r="AB16" s="2" t="n">
         <v>996275</v>
       </c>
-      <c r="AB16" s="2" t="n">
+      <c r="AC16" s="2" t="n">
         <v>635875</v>
       </c>
-      <c r="AC16" s="2" t="n">
+      <c r="AD16" s="2" t="n">
         <v>1058804</v>
       </c>
-      <c r="AD16" s="2" t="n">
+      <c r="AE16" s="2" t="n">
         <v>-690767</v>
       </c>
-      <c r="AE16" s="2" t="n">
+      <c r="AF16" s="2" t="n">
         <v>83941</v>
       </c>
-      <c r="AF16" s="2" t="n">
+      <c r="AG16" s="2" t="n">
         <v>708188</v>
       </c>
-      <c r="AG16" s="2" t="n">
+      <c r="AH16" s="2" t="n">
         <v>66274</v>
       </c>
-      <c r="AH16" s="2" t="n">
+      <c r="AI16" s="2" t="n">
         <v>291832</v>
       </c>
-      <c r="AI16" s="2" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" s="2" t="n">
+      <c r="AK16" s="2" t="n">
         <v>1679242</v>
       </c>
-      <c r="AK16" s="2" t="n">
+      <c r="AL16" s="2" t="n">
         <v>1399206</v>
       </c>
-      <c r="AM16" s="2" t="n">
+      <c r="AN16" s="2" t="n">
         <v>80000</v>
       </c>
-      <c r="AP16" s="2" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>14434856</v>
       </c>
-      <c r="AQ16" s="2" t="n">
+      <c r="AR16" s="2" t="n">
         <v>10763945</v>
       </c>
-      <c r="AR16" s="2" t="n">
+      <c r="AS16" s="2" t="n">
         <v>23214580</v>
       </c>
-      <c r="AS16" s="2" t="n">
+      <c r="AT16" s="2" t="n">
         <v>15273126</v>
       </c>
-      <c r="AT16" s="2" t="n">
+      <c r="AU16" s="2" t="n">
         <v>111360</v>
       </c>
-      <c r="AU16" s="2" t="n">
+      <c r="AV16" s="2" t="n">
         <v>3140108</v>
       </c>
-      <c r="AV16" s="2" t="n">
+      <c r="AW16" s="2" t="n">
         <v>1244683</v>
       </c>
-      <c r="AW16" s="2" t="n">
+      <c r="AX16" s="2" t="n">
         <v>2832686</v>
       </c>
-      <c r="AX16" s="2" t="n">
+      <c r="AY16" s="2" t="n">
         <v>239617</v>
       </c>
-      <c r="AY16" s="2" t="n">
+      <c r="AZ16" s="2" t="n">
         <v>23317</v>
       </c>
-      <c r="AZ16" s="2" t="n">
+      <c r="BA16" s="2" t="n">
         <v>16595</v>
       </c>
-      <c r="BA16" s="2" t="n">
+      <c r="BB16" s="2" t="n">
         <v>31849</v>
       </c>
-      <c r="BB16" s="2" t="n">
+      <c r="BC16" s="2" t="n">
         <v>398127</v>
       </c>
-      <c r="BC16" s="2" t="n">
+      <c r="BD16" s="2" t="n">
         <v>658715</v>
       </c>
-      <c r="BD16" s="2" t="n">
+      <c r="BE16" s="2" t="n">
         <v>26152</v>
       </c>
-      <c r="BE16" s="2" t="n">
+      <c r="BF16" s="2" t="n">
         <v>561892</v>
-      </c>
-      <c r="BF16" s="2" t="n">
-        <v>903612</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
+        <v>792566</v>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="C17" s="2" t="n">
         <v>1501864</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="D17" s="2" t="n">
         <v>5573132</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="E17" s="2" t="n">
         <v>1244853</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="F17" s="2" t="n">
         <v>3441922</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="G17" s="2" t="n">
         <v>36416</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="H17" s="2" t="n">
         <v>151174</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="I17" s="2" t="n">
         <v>279975</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="J17" s="2" t="n">
         <v>2519547</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="K17" s="2" t="n">
         <v>4689157</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="M17" s="2" t="n">
         <v>307666</v>
       </c>
-      <c r="M17" s="2" t="n">
+      <c r="N17" s="2" t="n">
         <v>687765</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="P17" s="2" t="n">
         <v>2506912</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="Q17" s="2" t="n">
         <v>126741</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="R17" s="2" t="n">
         <v>160264</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="V17" s="2" t="n">
         <v>21779131</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="W17" s="2" t="n">
         <v>99695</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="X17" s="2" t="n">
         <v>36416</v>
       </c>
-      <c r="Y17" s="2" t="n">
+      <c r="Z17" s="2" t="n">
         <v>1977584</v>
       </c>
-      <c r="Z17" s="2" t="n">
+      <c r="AA17" s="2" t="n">
         <v>4292208</v>
       </c>
-      <c r="AA17" s="2" t="n">
+      <c r="AB17" s="2" t="n">
         <v>733455</v>
       </c>
-      <c r="AB17" s="2" t="n">
+      <c r="AC17" s="2" t="n">
         <v>861024</v>
       </c>
-      <c r="AC17" s="2" t="n">
+      <c r="AD17" s="2" t="n">
         <v>986909</v>
       </c>
-      <c r="AD17" s="2" t="n">
+      <c r="AE17" s="2" t="n">
         <v>-670282</v>
       </c>
-      <c r="AE17" s="2" t="n">
+      <c r="AF17" s="2" t="n">
         <v>163008</v>
       </c>
-      <c r="AF17" s="2" t="n">
+      <c r="AG17" s="2" t="n">
         <v>626066</v>
       </c>
-      <c r="AG17" s="2" t="n">
+      <c r="AH17" s="2" t="n">
         <v>89540</v>
       </c>
-      <c r="AH17" s="2" t="n">
+      <c r="AI17" s="2" t="n">
         <v>20035</v>
       </c>
-      <c r="AI17" s="2" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>500000</v>
       </c>
-      <c r="AJ17" s="2" t="n">
+      <c r="AK17" s="2" t="n">
         <v>80000</v>
       </c>
-      <c r="AK17" s="2" t="n">
+      <c r="AL17" s="2" t="n">
         <v>687765</v>
       </c>
-      <c r="AP17" s="2" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>11183307</v>
       </c>
-      <c r="AQ17" s="2" t="n">
+      <c r="AR17" s="2" t="n">
         <v>10125095</v>
       </c>
-      <c r="AR17" s="2" t="n">
+      <c r="AS17" s="2" t="n">
         <v>21575920</v>
       </c>
-      <c r="AS17" s="2" t="n">
+      <c r="AT17" s="2" t="n">
         <v>13944797</v>
       </c>
-      <c r="AT17" s="2" t="n">
+      <c r="AU17" s="2" t="n">
         <v>105660</v>
       </c>
-      <c r="AV17" s="2" t="n">
+      <c r="AW17" s="2" t="n">
         <v>3137066</v>
       </c>
-      <c r="AX17" s="2" t="n">
+      <c r="AY17" s="2" t="n">
         <v>288751</v>
       </c>
-      <c r="AY17" s="2"/>
-      <c r="BA17" s="2" t="n">
+      <c r="AZ17" s="2"/>
+      <c r="BB17" s="2" t="n">
         <v>-59354</v>
       </c>
-      <c r="BB17" s="2" t="n">
+      <c r="BC17" s="2" t="n">
         <v>1092299</v>
       </c>
-      <c r="BC17" s="2" t="n">
+      <c r="BD17" s="2" t="n">
         <v>27627</v>
       </c>
-      <c r="BD17" s="2" t="n">
+      <c r="BE17" s="2" t="n">
         <v>16722</v>
       </c>
-      <c r="BE17" s="2" t="n">
+      <c r="BF17" s="2" t="n">
         <v>148976</v>
-      </c>
-      <c r="BF17" s="2" t="n">
-        <v>792566</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
+        <v>1162283</v>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="C18" s="2" t="n">
         <v>1418816</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="D18" s="2" t="n">
         <v>7598223</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="E18" s="2" t="n">
         <v>2258088</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="F18" s="2" t="n">
         <v>3652506</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="H18" s="2" t="n">
         <v>145398</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="I18" s="2" t="n">
         <v>257595</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="J18" s="2" t="n">
         <v>1871767</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="K18" s="2" t="n">
         <v>2752024</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="P18" s="2" t="n">
         <v>1974613</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="Q18" s="2" t="n">
         <v>114677</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="R18" s="2" t="n">
         <v>146214</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="V18" s="2" t="n">
         <v>20830022</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="W18" s="2" t="n">
         <v>405695</v>
       </c>
-      <c r="Y18" s="2" t="n">
+      <c r="Z18" s="2" t="n">
         <v>1422401</v>
       </c>
-      <c r="Z18" s="2" t="n">
+      <c r="AA18" s="2" t="n">
         <v>2919483</v>
       </c>
-      <c r="AA18" s="2" t="n">
+      <c r="AB18" s="2" t="n">
         <v>2318731</v>
       </c>
-      <c r="AB18" s="2" t="n">
+      <c r="AC18" s="2" t="n">
         <v>292023</v>
       </c>
-      <c r="AC18" s="2" t="n">
+      <c r="AD18" s="2" t="n">
         <v>969844</v>
       </c>
-      <c r="AD18" s="2" t="n">
+      <c r="AE18" s="2" t="n">
         <v>13197</v>
       </c>
-      <c r="AE18" s="2" t="n">
+      <c r="AF18" s="2" t="n">
         <v>40921</v>
       </c>
-      <c r="AF18" s="2" t="n">
+      <c r="AG18" s="2" t="n">
         <v>698727</v>
       </c>
-      <c r="AG18" s="2" t="n">
+      <c r="AH18" s="2" t="n">
         <v>110980</v>
       </c>
-      <c r="AH18" s="2" t="n">
+      <c r="AI18" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="AI18" s="2" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>16900</v>
       </c>
-      <c r="AJ18" s="2" t="n">
+      <c r="AK18" s="2" t="n">
         <v>1025263</v>
       </c>
-      <c r="AK18" s="2" t="n">
+      <c r="AL18" s="2" t="n">
         <v>980087</v>
       </c>
-      <c r="AP18" s="2" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>11190904</v>
       </c>
-      <c r="AQ18" s="2" t="n">
+      <c r="AR18" s="2" t="n">
         <v>9174439</v>
       </c>
-      <c r="AR18" s="2" t="n">
+      <c r="AS18" s="2" t="n">
         <v>22698153</v>
       </c>
-      <c r="AS18" s="2" t="n">
+      <c r="AT18" s="2" t="n">
         <v>14369106</v>
       </c>
-      <c r="AT18" s="2" t="n">
+      <c r="AU18" s="2" t="n">
         <v>70912</v>
       </c>
-      <c r="AV18" s="2" t="n">
+      <c r="AW18" s="2" t="n">
         <v>3899003</v>
       </c>
-      <c r="AX18" s="2" t="n">
+      <c r="AY18" s="2" t="n">
         <v>284978</v>
       </c>
-      <c r="AY18" s="2"/>
-      <c r="BA18" s="2" t="n">
+      <c r="AZ18" s="2"/>
+      <c r="BB18" s="2" t="n">
         <v>-3669</v>
       </c>
-      <c r="BB18" s="2" t="n">
+      <c r="BC18" s="2" t="n">
         <v>1186383</v>
       </c>
-      <c r="BC18" s="2" t="n">
+      <c r="BD18" s="2" t="n">
         <v>18041</v>
       </c>
-      <c r="BD18" s="2" t="n">
+      <c r="BE18" s="2" t="n">
         <v>160637</v>
       </c>
-      <c r="BE18" s="2" t="n">
+      <c r="BF18" s="2" t="n">
         <v>202011</v>
       </c>
-      <c r="BF18" s="2" t="n">
-        <v>1162283</v>
-      </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3275,7 +3275,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
